--- a/Inventaris per Kast.xlsx
+++ b/Inventaris per Kast.xlsx
@@ -89,33 +89,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Developer Preview Kit
-Bluetooth Low Energy Beacons</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t xml:space="preserve">Rek 3 (Boven)</t>
   </si>
@@ -129,12 +104,21 @@
     <t xml:space="preserve">Voorraad ±</t>
   </si>
   <si>
+    <t xml:space="preserve">Uitleen termijn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estimote location beacons Dev kit</t>
   </si>
   <si>
+    <t xml:space="preserve">2 dagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oculus Rift</t>
   </si>
   <si>
+    <t xml:space="preserve">1 dag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estimote beacons Dev Preview kit</t>
   </si>
   <si>
@@ -168,6 +152,9 @@
     <t xml:space="preserve">GrovePi+ Starter kit for Raspberry Pi</t>
   </si>
   <si>
+    <t xml:space="preserve">4 dagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazone Echo Dot</t>
   </si>
   <si>
@@ -195,13 +182,16 @@
     <t xml:space="preserve">iPhone and iPad Apps for Absolute Beginners</t>
   </si>
   <si>
+    <t xml:space="preserve">3 weken</t>
+  </si>
+  <si>
     <t xml:space="preserve">HoloLens</t>
   </si>
   <si>
     <t xml:space="preserve">Fundamentals of Computer Graphics</t>
   </si>
   <si>
-    <t xml:space="preserve">MicroPython</t>
+    <t xml:space="preserve">Micro Python Case</t>
   </si>
   <si>
     <t xml:space="preserve">How to find, organize and manipulate it</t>
@@ -219,7 +209,7 @@
     <t xml:space="preserve">Data Mining with Rattle and R</t>
   </si>
   <si>
-    <t xml:space="preserve">MicroPython Behuizing</t>
+    <t xml:space="preserve">Micro Python Computer</t>
   </si>
   <si>
     <t xml:space="preserve">Programming Computer Vision with Python</t>
@@ -292,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -308,6 +298,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -322,6 +319,15 @@
       <top style="thin"/>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,13 +375,15 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FF999999"/>
       </top>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
         <color rgb="FFB7B7B7"/>
@@ -386,13 +394,31 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -432,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,55 +471,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,7 +601,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -574,19 +620,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -594,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -606,100 +652,137 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="n">
+      <c r="F8" s="16" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="G8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -708,79 +791,109 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6" t="n">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="n">
         <v>5</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8" t="n">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="n">
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <v>5</v>
+      <c r="C20" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -800,179 +913,239 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="n">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="n">
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>1</v>
+      <c r="E10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>1</v>
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
+      <c r="A12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>1</v>
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="10" t="n">
-        <v>1</v>
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -983,6 +1156,5 @@
     <oddHeader>&amp;LGraag melden als je een fout ziet!&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>